--- a/library/export_employee.xlsx
+++ b/library/export_employee.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Office :</t>
   </si>
@@ -62,7 +62,10 @@
     <t>BIRTHDAY</t>
   </si>
   <si>
-    <t>OFFICE CONTAT NO</t>
+    <t>OFFICE CONTACT NO</t>
+  </si>
+  <si>
+    <t>OFFICE EMAIL ADDRESS</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J301"/>
+  <dimension ref="A3:K301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -452,11 +455,12 @@
     <col min="7" max="7" width="17.21875" style="1" customWidth="1"/>
     <col min="8" max="8" width="25.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
@@ -464,13 +468,13 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
@@ -478,34 +482,34 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>6</v>
@@ -526,10 +530,13 @@
         <v>12</v>
       </c>
       <c r="J11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -540,8 +547,9 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -552,8 +560,9 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -564,8 +573,9 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -576,8 +586,9 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -588,8 +599,9 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -600,8 +612,9 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -612,8 +625,9 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -624,8 +638,9 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -636,8 +651,9 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -648,8 +664,9 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -660,8 +677,9 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -672,8 +690,9 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -684,8 +703,9 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -696,8 +716,9 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -708,8 +729,9 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -720,8 +742,9 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -732,8 +755,9 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -744,8 +768,9 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -756,8 +781,9 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -768,8 +794,9 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -780,8 +807,9 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -792,8 +820,9 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -804,8 +833,9 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -816,8 +846,9 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -828,8 +859,9 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -840,8 +872,9 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -852,8 +885,9 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -864,8 +898,9 @@
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -876,8 +911,9 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -888,8 +924,9 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -900,8 +937,9 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -912,8 +950,9 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -924,8 +963,9 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -936,8 +976,9 @@
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -948,8 +989,9 @@
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -960,8 +1002,9 @@
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="7"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -972,8 +1015,9 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -984,8 +1028,9 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -996,8 +1041,9 @@
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -1008,8 +1054,9 @@
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -1020,8 +1067,9 @@
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -1032,8 +1080,9 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -1044,8 +1093,9 @@
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -1056,8 +1106,9 @@
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" s="7"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -1068,8 +1119,9 @@
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -1080,8 +1132,9 @@
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="7"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -1092,8 +1145,9 @@
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" s="7"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -1104,8 +1158,9 @@
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -1116,8 +1171,9 @@
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" s="7"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -1128,8 +1184,9 @@
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -1140,8 +1197,9 @@
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -1152,8 +1210,9 @@
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" s="7"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -1164,8 +1223,9 @@
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" s="7"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -1176,8 +1236,9 @@
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" s="7"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -1188,8 +1249,9 @@
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" s="7"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -1200,8 +1262,9 @@
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -1212,8 +1275,9 @@
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" s="7"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -1224,8 +1288,9 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" s="7"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -1236,8 +1301,9 @@
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" s="7"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -1248,8 +1314,9 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" s="7"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -1260,8 +1327,9 @@
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="7"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -1272,8 +1340,9 @@
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" s="7"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -1284,8 +1353,9 @@
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" s="7"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -1296,8 +1366,9 @@
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" s="7"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -1308,8 +1379,9 @@
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" s="7"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -1320,8 +1392,9 @@
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" s="7"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -1332,8 +1405,9 @@
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" s="7"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -1344,8 +1418,9 @@
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" s="7"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -1356,8 +1431,9 @@
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" s="7"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -1368,8 +1444,9 @@
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" s="7"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -1380,8 +1457,9 @@
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" s="7"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -1392,8 +1470,9 @@
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" s="7"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -1404,8 +1483,9 @@
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" s="7"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -1416,8 +1496,9 @@
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" s="7"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -1428,8 +1509,9 @@
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" s="7"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -1440,8 +1522,9 @@
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" s="7"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -1452,8 +1535,9 @@
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" s="7"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -1464,8 +1548,9 @@
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" s="7"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -1476,8 +1561,9 @@
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" s="7"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -1488,8 +1574,9 @@
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" s="7"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -1500,8 +1587,9 @@
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" s="7"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -1512,8 +1600,9 @@
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" s="7"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -1524,8 +1613,9 @@
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" s="7"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -1536,8 +1626,9 @@
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95" s="7"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -1548,8 +1639,9 @@
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" s="7"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -1560,8 +1652,9 @@
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" s="7"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -1572,8 +1665,9 @@
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" s="7"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -1584,8 +1678,9 @@
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" s="7"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -1596,8 +1691,9 @@
       <c r="H100" s="7"/>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" s="7"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -1608,8 +1704,9 @@
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101" s="7"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -1620,8 +1717,9 @@
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" s="7"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -1632,8 +1730,9 @@
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103" s="7"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -1644,8 +1743,9 @@
       <c r="H104" s="7"/>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104" s="7"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -1656,8 +1756,9 @@
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105" s="7"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -1668,8 +1769,9 @@
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106" s="7"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -1680,8 +1782,9 @@
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107" s="7"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -1692,8 +1795,9 @@
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108" s="7"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -1704,8 +1808,9 @@
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109" s="7"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -1716,8 +1821,9 @@
       <c r="H110" s="7"/>
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110" s="7"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -1728,8 +1834,9 @@
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111" s="7"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -1740,8 +1847,9 @@
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112" s="7"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -1752,8 +1860,9 @@
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113" s="7"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -1764,8 +1873,9 @@
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114" s="7"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -1776,8 +1886,9 @@
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115" s="7"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -1788,8 +1899,9 @@
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116" s="7"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -1800,8 +1912,9 @@
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117" s="7"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -1812,8 +1925,9 @@
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118" s="7"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -1824,8 +1938,9 @@
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119" s="7"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -1836,8 +1951,9 @@
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K120" s="7"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -1848,8 +1964,9 @@
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121" s="7"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -1860,8 +1977,9 @@
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K122" s="7"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -1872,8 +1990,9 @@
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K123" s="7"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -1884,8 +2003,9 @@
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K124" s="7"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -1896,8 +2016,9 @@
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K125" s="7"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -1908,8 +2029,9 @@
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126" s="7"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -1920,8 +2042,9 @@
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K127" s="7"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -1932,8 +2055,9 @@
       <c r="H128" s="7"/>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K128" s="7"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -1944,8 +2068,9 @@
       <c r="H129" s="7"/>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K129" s="7"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -1956,8 +2081,9 @@
       <c r="H130" s="7"/>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K130" s="7"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -1968,8 +2094,9 @@
       <c r="H131" s="7"/>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K131" s="7"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -1980,8 +2107,9 @@
       <c r="H132" s="7"/>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K132" s="7"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -1992,8 +2120,9 @@
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133" s="7"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -2004,8 +2133,9 @@
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K134" s="7"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -2016,8 +2146,9 @@
       <c r="H135" s="7"/>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K135" s="7"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -2028,8 +2159,9 @@
       <c r="H136" s="7"/>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K136" s="7"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -2040,8 +2172,9 @@
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K137" s="7"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -2052,8 +2185,9 @@
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K138" s="7"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -2064,8 +2198,9 @@
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K139" s="7"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -2076,8 +2211,9 @@
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K140" s="7"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -2088,8 +2224,9 @@
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K141" s="7"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -2100,8 +2237,9 @@
       <c r="H142" s="7"/>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K142" s="7"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -2112,8 +2250,9 @@
       <c r="H143" s="7"/>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K143" s="7"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -2124,8 +2263,9 @@
       <c r="H144" s="7"/>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K144" s="7"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -2136,8 +2276,9 @@
       <c r="H145" s="7"/>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K145" s="7"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -2148,8 +2289,9 @@
       <c r="H146" s="7"/>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K146" s="7"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -2160,8 +2302,9 @@
       <c r="H147" s="7"/>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K147" s="7"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -2172,8 +2315,9 @@
       <c r="H148" s="7"/>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K148" s="7"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -2184,8 +2328,9 @@
       <c r="H149" s="7"/>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K149" s="7"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -2196,8 +2341,9 @@
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K150" s="7"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -2208,8 +2354,9 @@
       <c r="H151" s="7"/>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K151" s="7"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -2220,8 +2367,9 @@
       <c r="H152" s="7"/>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K152" s="7"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -2232,8 +2380,9 @@
       <c r="H153" s="7"/>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K153" s="7"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -2244,8 +2393,9 @@
       <c r="H154" s="7"/>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K154" s="7"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -2256,8 +2406,9 @@
       <c r="H155" s="7"/>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K155" s="7"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -2268,8 +2419,9 @@
       <c r="H156" s="7"/>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K156" s="7"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -2280,8 +2432,9 @@
       <c r="H157" s="7"/>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K157" s="7"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -2292,8 +2445,9 @@
       <c r="H158" s="7"/>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K158" s="7"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -2304,8 +2458,9 @@
       <c r="H159" s="7"/>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K159" s="7"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -2316,8 +2471,9 @@
       <c r="H160" s="7"/>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K160" s="7"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -2328,8 +2484,9 @@
       <c r="H161" s="7"/>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K161" s="7"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -2340,8 +2497,9 @@
       <c r="H162" s="7"/>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K162" s="7"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -2352,8 +2510,9 @@
       <c r="H163" s="7"/>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K163" s="7"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -2364,8 +2523,9 @@
       <c r="H164" s="7"/>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K164" s="7"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -2376,8 +2536,9 @@
       <c r="H165" s="7"/>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K165" s="7"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -2388,8 +2549,9 @@
       <c r="H166" s="7"/>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K166" s="7"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -2400,8 +2562,9 @@
       <c r="H167" s="7"/>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K167" s="7"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -2412,8 +2575,9 @@
       <c r="H168" s="7"/>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K168" s="7"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -2424,8 +2588,9 @@
       <c r="H169" s="7"/>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K169" s="7"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -2436,8 +2601,9 @@
       <c r="H170" s="7"/>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K170" s="7"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -2448,8 +2614,9 @@
       <c r="H171" s="7"/>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K171" s="7"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -2460,8 +2627,9 @@
       <c r="H172" s="7"/>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K172" s="7"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -2472,8 +2640,9 @@
       <c r="H173" s="7"/>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K173" s="7"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -2484,8 +2653,9 @@
       <c r="H174" s="7"/>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K174" s="7"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -2496,8 +2666,9 @@
       <c r="H175" s="7"/>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K175" s="7"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -2508,8 +2679,9 @@
       <c r="H176" s="7"/>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K176" s="7"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -2520,8 +2692,9 @@
       <c r="H177" s="7"/>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K177" s="7"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -2532,8 +2705,9 @@
       <c r="H178" s="7"/>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K178" s="7"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -2544,8 +2718,9 @@
       <c r="H179" s="7"/>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K179" s="7"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -2556,8 +2731,9 @@
       <c r="H180" s="7"/>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K180" s="7"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -2568,8 +2744,9 @@
       <c r="H181" s="7"/>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K181" s="7"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -2580,8 +2757,9 @@
       <c r="H182" s="7"/>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K182" s="7"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -2592,8 +2770,9 @@
       <c r="H183" s="7"/>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K183" s="7"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -2604,8 +2783,9 @@
       <c r="H184" s="7"/>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K184" s="7"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -2616,8 +2796,9 @@
       <c r="H185" s="7"/>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K185" s="7"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -2628,8 +2809,9 @@
       <c r="H186" s="7"/>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K186" s="7"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -2640,8 +2822,9 @@
       <c r="H187" s="7"/>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K187" s="7"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -2652,8 +2835,9 @@
       <c r="H188" s="7"/>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K188" s="7"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -2664,8 +2848,9 @@
       <c r="H189" s="7"/>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K189" s="7"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -2676,8 +2861,9 @@
       <c r="H190" s="7"/>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K190" s="7"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -2688,8 +2874,9 @@
       <c r="H191" s="7"/>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K191" s="7"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -2700,8 +2887,9 @@
       <c r="H192" s="7"/>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K192" s="7"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -2712,8 +2900,9 @@
       <c r="H193" s="7"/>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K193" s="7"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -2724,8 +2913,9 @@
       <c r="H194" s="7"/>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K194" s="7"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -2736,8 +2926,9 @@
       <c r="H195" s="7"/>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K195" s="7"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -2748,8 +2939,9 @@
       <c r="H196" s="7"/>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K196" s="7"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -2760,8 +2952,9 @@
       <c r="H197" s="7"/>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K197" s="7"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -2772,8 +2965,9 @@
       <c r="H198" s="7"/>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K198" s="7"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -2784,8 +2978,9 @@
       <c r="H199" s="7"/>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K199" s="7"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -2796,8 +2991,9 @@
       <c r="H200" s="7"/>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K200" s="7"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -2808,8 +3004,9 @@
       <c r="H201" s="7"/>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K201" s="7"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -2820,8 +3017,9 @@
       <c r="H202" s="7"/>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K202" s="7"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -2832,8 +3030,9 @@
       <c r="H203" s="7"/>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K203" s="7"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -2844,8 +3043,9 @@
       <c r="H204" s="7"/>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K204" s="7"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -2856,8 +3056,9 @@
       <c r="H205" s="7"/>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K205" s="7"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -2868,8 +3069,9 @@
       <c r="H206" s="7"/>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K206" s="7"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -2880,8 +3082,9 @@
       <c r="H207" s="7"/>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K207" s="7"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -2892,8 +3095,9 @@
       <c r="H208" s="7"/>
       <c r="I208" s="7"/>
       <c r="J208" s="7"/>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K208" s="7"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -2904,8 +3108,9 @@
       <c r="H209" s="7"/>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K209" s="7"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -2916,8 +3121,9 @@
       <c r="H210" s="7"/>
       <c r="I210" s="7"/>
       <c r="J210" s="7"/>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K210" s="7"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="8"/>
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
@@ -2928,8 +3134,9 @@
       <c r="H211" s="7"/>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K211" s="7"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="8"/>
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
@@ -2940,8 +3147,9 @@
       <c r="H212" s="7"/>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K212" s="7"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="8"/>
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
@@ -2952,8 +3160,9 @@
       <c r="H213" s="7"/>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K213" s="7"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="8"/>
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
@@ -2964,8 +3173,9 @@
       <c r="H214" s="7"/>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K214" s="7"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="8"/>
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
@@ -2976,8 +3186,9 @@
       <c r="H215" s="7"/>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K215" s="7"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="8"/>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
@@ -2988,8 +3199,9 @@
       <c r="H216" s="7"/>
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K216" s="7"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="8"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
@@ -3000,8 +3212,9 @@
       <c r="H217" s="7"/>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K217" s="7"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="8"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
@@ -3012,8 +3225,9 @@
       <c r="H218" s="7"/>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K218" s="7"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="8"/>
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
@@ -3024,8 +3238,9 @@
       <c r="H219" s="7"/>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K219" s="7"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="8"/>
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
@@ -3036,8 +3251,9 @@
       <c r="H220" s="7"/>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K220" s="7"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="8"/>
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
@@ -3048,8 +3264,9 @@
       <c r="H221" s="7"/>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K221" s="7"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="8"/>
       <c r="B222" s="8"/>
       <c r="C222" s="8"/>
@@ -3060,8 +3277,9 @@
       <c r="H222" s="7"/>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K222" s="7"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="8"/>
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
@@ -3072,8 +3290,9 @@
       <c r="H223" s="7"/>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K223" s="7"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="8"/>
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
@@ -3084,8 +3303,9 @@
       <c r="H224" s="7"/>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K224" s="7"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="8"/>
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
@@ -3096,8 +3316,9 @@
       <c r="H225" s="7"/>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K225" s="7"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="8"/>
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
@@ -3108,8 +3329,9 @@
       <c r="H226" s="7"/>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K226" s="7"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="8"/>
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
@@ -3120,8 +3342,9 @@
       <c r="H227" s="7"/>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K227" s="7"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="8"/>
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
@@ -3132,8 +3355,9 @@
       <c r="H228" s="7"/>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K228" s="7"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="8"/>
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
@@ -3144,8 +3368,9 @@
       <c r="H229" s="7"/>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K229" s="7"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="8"/>
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
@@ -3156,8 +3381,9 @@
       <c r="H230" s="7"/>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K230" s="7"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="8"/>
       <c r="B231" s="8"/>
       <c r="C231" s="8"/>
@@ -3168,8 +3394,9 @@
       <c r="H231" s="7"/>
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K231" s="7"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="8"/>
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
@@ -3180,8 +3407,9 @@
       <c r="H232" s="7"/>
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K232" s="7"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="8"/>
       <c r="B233" s="8"/>
       <c r="C233" s="8"/>
@@ -3192,8 +3420,9 @@
       <c r="H233" s="7"/>
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K233" s="7"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="8"/>
       <c r="B234" s="8"/>
       <c r="C234" s="8"/>
@@ -3204,8 +3433,9 @@
       <c r="H234" s="7"/>
       <c r="I234" s="7"/>
       <c r="J234" s="7"/>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K234" s="7"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="8"/>
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
@@ -3216,8 +3446,9 @@
       <c r="H235" s="7"/>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K235" s="7"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="8"/>
       <c r="B236" s="8"/>
       <c r="C236" s="8"/>
@@ -3228,8 +3459,9 @@
       <c r="H236" s="7"/>
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K236" s="7"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="8"/>
       <c r="B237" s="8"/>
       <c r="C237" s="8"/>
@@ -3240,8 +3472,9 @@
       <c r="H237" s="7"/>
       <c r="I237" s="7"/>
       <c r="J237" s="7"/>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K237" s="7"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="8"/>
       <c r="B238" s="8"/>
       <c r="C238" s="8"/>
@@ -3252,8 +3485,9 @@
       <c r="H238" s="7"/>
       <c r="I238" s="7"/>
       <c r="J238" s="7"/>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K238" s="7"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="8"/>
       <c r="B239" s="8"/>
       <c r="C239" s="8"/>
@@ -3264,8 +3498,9 @@
       <c r="H239" s="7"/>
       <c r="I239" s="7"/>
       <c r="J239" s="7"/>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K239" s="7"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="8"/>
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
@@ -3276,8 +3511,9 @@
       <c r="H240" s="7"/>
       <c r="I240" s="7"/>
       <c r="J240" s="7"/>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K240" s="7"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="8"/>
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
@@ -3288,8 +3524,9 @@
       <c r="H241" s="7"/>
       <c r="I241" s="7"/>
       <c r="J241" s="7"/>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K241" s="7"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="8"/>
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
@@ -3300,8 +3537,9 @@
       <c r="H242" s="7"/>
       <c r="I242" s="7"/>
       <c r="J242" s="7"/>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K242" s="7"/>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="8"/>
       <c r="B243" s="8"/>
       <c r="C243" s="8"/>
@@ -3312,8 +3550,9 @@
       <c r="H243" s="7"/>
       <c r="I243" s="7"/>
       <c r="J243" s="7"/>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K243" s="7"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="8"/>
       <c r="B244" s="8"/>
       <c r="C244" s="8"/>
@@ -3324,8 +3563,9 @@
       <c r="H244" s="7"/>
       <c r="I244" s="7"/>
       <c r="J244" s="7"/>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K244" s="7"/>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="8"/>
       <c r="B245" s="8"/>
       <c r="C245" s="8"/>
@@ -3336,8 +3576,9 @@
       <c r="H245" s="7"/>
       <c r="I245" s="7"/>
       <c r="J245" s="7"/>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K245" s="7"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="8"/>
       <c r="B246" s="8"/>
       <c r="C246" s="8"/>
@@ -3348,8 +3589,9 @@
       <c r="H246" s="7"/>
       <c r="I246" s="7"/>
       <c r="J246" s="7"/>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K246" s="7"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="8"/>
       <c r="B247" s="8"/>
       <c r="C247" s="8"/>
@@ -3360,8 +3602,9 @@
       <c r="H247" s="7"/>
       <c r="I247" s="7"/>
       <c r="J247" s="7"/>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K247" s="7"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="8"/>
       <c r="B248" s="8"/>
       <c r="C248" s="8"/>
@@ -3372,8 +3615,9 @@
       <c r="H248" s="7"/>
       <c r="I248" s="7"/>
       <c r="J248" s="7"/>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K248" s="7"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="8"/>
       <c r="B249" s="8"/>
       <c r="C249" s="8"/>
@@ -3384,8 +3628,9 @@
       <c r="H249" s="7"/>
       <c r="I249" s="7"/>
       <c r="J249" s="7"/>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K249" s="7"/>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="8"/>
       <c r="B250" s="8"/>
       <c r="C250" s="8"/>
@@ -3396,8 +3641,9 @@
       <c r="H250" s="7"/>
       <c r="I250" s="7"/>
       <c r="J250" s="7"/>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K250" s="7"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="8"/>
       <c r="B251" s="8"/>
       <c r="C251" s="8"/>
@@ -3408,8 +3654,9 @@
       <c r="H251" s="7"/>
       <c r="I251" s="7"/>
       <c r="J251" s="7"/>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K251" s="7"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="8"/>
       <c r="B252" s="8"/>
       <c r="C252" s="8"/>
@@ -3420,8 +3667,9 @@
       <c r="H252" s="7"/>
       <c r="I252" s="7"/>
       <c r="J252" s="7"/>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K252" s="7"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="8"/>
       <c r="B253" s="8"/>
       <c r="C253" s="8"/>
@@ -3432,8 +3680,9 @@
       <c r="H253" s="7"/>
       <c r="I253" s="7"/>
       <c r="J253" s="7"/>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K253" s="7"/>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="8"/>
       <c r="B254" s="8"/>
       <c r="C254" s="8"/>
@@ -3444,8 +3693,9 @@
       <c r="H254" s="7"/>
       <c r="I254" s="7"/>
       <c r="J254" s="7"/>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K254" s="7"/>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="8"/>
       <c r="B255" s="8"/>
       <c r="C255" s="8"/>
@@ -3456,8 +3706,9 @@
       <c r="H255" s="7"/>
       <c r="I255" s="7"/>
       <c r="J255" s="7"/>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K255" s="7"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="8"/>
       <c r="B256" s="8"/>
       <c r="C256" s="8"/>
@@ -3468,8 +3719,9 @@
       <c r="H256" s="7"/>
       <c r="I256" s="7"/>
       <c r="J256" s="7"/>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K256" s="7"/>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="8"/>
       <c r="B257" s="8"/>
       <c r="C257" s="8"/>
@@ -3480,8 +3732,9 @@
       <c r="H257" s="7"/>
       <c r="I257" s="7"/>
       <c r="J257" s="7"/>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K257" s="7"/>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="8"/>
       <c r="B258" s="8"/>
       <c r="C258" s="8"/>
@@ -3492,8 +3745,9 @@
       <c r="H258" s="7"/>
       <c r="I258" s="7"/>
       <c r="J258" s="7"/>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K258" s="7"/>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="8"/>
       <c r="B259" s="8"/>
       <c r="C259" s="8"/>
@@ -3504,8 +3758,9 @@
       <c r="H259" s="7"/>
       <c r="I259" s="7"/>
       <c r="J259" s="7"/>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K259" s="7"/>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="8"/>
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
@@ -3516,8 +3771,9 @@
       <c r="H260" s="7"/>
       <c r="I260" s="7"/>
       <c r="J260" s="7"/>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K260" s="7"/>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="8"/>
       <c r="B261" s="8"/>
       <c r="C261" s="8"/>
@@ -3528,8 +3784,9 @@
       <c r="H261" s="7"/>
       <c r="I261" s="7"/>
       <c r="J261" s="7"/>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K261" s="7"/>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="8"/>
       <c r="B262" s="8"/>
       <c r="C262" s="8"/>
@@ -3540,8 +3797,9 @@
       <c r="H262" s="7"/>
       <c r="I262" s="7"/>
       <c r="J262" s="7"/>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K262" s="7"/>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="8"/>
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
@@ -3552,8 +3810,9 @@
       <c r="H263" s="7"/>
       <c r="I263" s="7"/>
       <c r="J263" s="7"/>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K263" s="7"/>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="8"/>
       <c r="B264" s="8"/>
       <c r="C264" s="8"/>
@@ -3564,8 +3823,9 @@
       <c r="H264" s="7"/>
       <c r="I264" s="7"/>
       <c r="J264" s="7"/>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K264" s="7"/>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="8"/>
       <c r="B265" s="8"/>
       <c r="C265" s="8"/>
@@ -3576,8 +3836,9 @@
       <c r="H265" s="7"/>
       <c r="I265" s="7"/>
       <c r="J265" s="7"/>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K265" s="7"/>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="8"/>
       <c r="B266" s="8"/>
       <c r="C266" s="8"/>
@@ -3588,8 +3849,9 @@
       <c r="H266" s="7"/>
       <c r="I266" s="7"/>
       <c r="J266" s="7"/>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K266" s="7"/>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="8"/>
       <c r="B267" s="8"/>
       <c r="C267" s="8"/>
@@ -3600,8 +3862,9 @@
       <c r="H267" s="7"/>
       <c r="I267" s="7"/>
       <c r="J267" s="7"/>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K267" s="7"/>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="8"/>
       <c r="B268" s="8"/>
       <c r="C268" s="8"/>
@@ -3612,8 +3875,9 @@
       <c r="H268" s="7"/>
       <c r="I268" s="7"/>
       <c r="J268" s="7"/>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K268" s="7"/>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="8"/>
       <c r="B269" s="8"/>
       <c r="C269" s="8"/>
@@ -3624,8 +3888,9 @@
       <c r="H269" s="7"/>
       <c r="I269" s="7"/>
       <c r="J269" s="7"/>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K269" s="7"/>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="8"/>
       <c r="B270" s="8"/>
       <c r="C270" s="8"/>
@@ -3636,8 +3901,9 @@
       <c r="H270" s="7"/>
       <c r="I270" s="7"/>
       <c r="J270" s="7"/>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K270" s="7"/>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="8"/>
       <c r="B271" s="8"/>
       <c r="C271" s="8"/>
@@ -3648,8 +3914,9 @@
       <c r="H271" s="7"/>
       <c r="I271" s="7"/>
       <c r="J271" s="7"/>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K271" s="7"/>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="8"/>
       <c r="B272" s="8"/>
       <c r="C272" s="8"/>
@@ -3660,8 +3927,9 @@
       <c r="H272" s="7"/>
       <c r="I272" s="7"/>
       <c r="J272" s="7"/>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K272" s="7"/>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="8"/>
       <c r="B273" s="8"/>
       <c r="C273" s="8"/>
@@ -3672,8 +3940,9 @@
       <c r="H273" s="7"/>
       <c r="I273" s="7"/>
       <c r="J273" s="7"/>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K273" s="7"/>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="8"/>
       <c r="B274" s="8"/>
       <c r="C274" s="8"/>
@@ -3684,8 +3953,9 @@
       <c r="H274" s="7"/>
       <c r="I274" s="7"/>
       <c r="J274" s="7"/>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K274" s="7"/>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="8"/>
       <c r="B275" s="8"/>
       <c r="C275" s="8"/>
@@ -3696,8 +3966,9 @@
       <c r="H275" s="7"/>
       <c r="I275" s="7"/>
       <c r="J275" s="7"/>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K275" s="7"/>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="8"/>
       <c r="B276" s="8"/>
       <c r="C276" s="8"/>
@@ -3708,8 +3979,9 @@
       <c r="H276" s="7"/>
       <c r="I276" s="7"/>
       <c r="J276" s="7"/>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K276" s="7"/>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="8"/>
       <c r="B277" s="8"/>
       <c r="C277" s="8"/>
@@ -3720,8 +3992,9 @@
       <c r="H277" s="7"/>
       <c r="I277" s="7"/>
       <c r="J277" s="7"/>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K277" s="7"/>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="8"/>
       <c r="B278" s="8"/>
       <c r="C278" s="8"/>
@@ -3732,8 +4005,9 @@
       <c r="H278" s="7"/>
       <c r="I278" s="7"/>
       <c r="J278" s="7"/>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K278" s="7"/>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="8"/>
       <c r="B279" s="8"/>
       <c r="C279" s="8"/>
@@ -3744,8 +4018,9 @@
       <c r="H279" s="7"/>
       <c r="I279" s="7"/>
       <c r="J279" s="7"/>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K279" s="7"/>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="8"/>
       <c r="B280" s="8"/>
       <c r="C280" s="8"/>
@@ -3756,8 +4031,9 @@
       <c r="H280" s="7"/>
       <c r="I280" s="7"/>
       <c r="J280" s="7"/>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K280" s="7"/>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="8"/>
       <c r="B281" s="8"/>
       <c r="C281" s="8"/>
@@ -3768,8 +4044,9 @@
       <c r="H281" s="7"/>
       <c r="I281" s="7"/>
       <c r="J281" s="7"/>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K281" s="7"/>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="8"/>
       <c r="B282" s="8"/>
       <c r="C282" s="8"/>
@@ -3780,8 +4057,9 @@
       <c r="H282" s="7"/>
       <c r="I282" s="7"/>
       <c r="J282" s="7"/>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K282" s="7"/>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="8"/>
       <c r="B283" s="8"/>
       <c r="C283" s="8"/>
@@ -3792,8 +4070,9 @@
       <c r="H283" s="7"/>
       <c r="I283" s="7"/>
       <c r="J283" s="7"/>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K283" s="7"/>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="8"/>
       <c r="B284" s="8"/>
       <c r="C284" s="8"/>
@@ -3804,8 +4083,9 @@
       <c r="H284" s="7"/>
       <c r="I284" s="7"/>
       <c r="J284" s="7"/>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K284" s="7"/>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="8"/>
       <c r="B285" s="8"/>
       <c r="C285" s="8"/>
@@ -3816,8 +4096,9 @@
       <c r="H285" s="7"/>
       <c r="I285" s="7"/>
       <c r="J285" s="7"/>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K285" s="7"/>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="8"/>
       <c r="B286" s="8"/>
       <c r="C286" s="8"/>
@@ -3828,8 +4109,9 @@
       <c r="H286" s="7"/>
       <c r="I286" s="7"/>
       <c r="J286" s="7"/>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K286" s="7"/>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="8"/>
       <c r="B287" s="8"/>
       <c r="C287" s="8"/>
@@ -3840,8 +4122,9 @@
       <c r="H287" s="7"/>
       <c r="I287" s="7"/>
       <c r="J287" s="7"/>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K287" s="7"/>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="8"/>
       <c r="B288" s="8"/>
       <c r="C288" s="8"/>
@@ -3852,8 +4135,9 @@
       <c r="H288" s="7"/>
       <c r="I288" s="7"/>
       <c r="J288" s="7"/>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K288" s="7"/>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="8"/>
       <c r="B289" s="8"/>
       <c r="C289" s="8"/>
@@ -3864,8 +4148,9 @@
       <c r="H289" s="7"/>
       <c r="I289" s="7"/>
       <c r="J289" s="7"/>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K289" s="7"/>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="8"/>
       <c r="B290" s="8"/>
       <c r="C290" s="8"/>
@@ -3876,8 +4161,9 @@
       <c r="H290" s="7"/>
       <c r="I290" s="7"/>
       <c r="J290" s="7"/>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K290" s="7"/>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="8"/>
       <c r="B291" s="8"/>
       <c r="C291" s="8"/>
@@ -3888,8 +4174,9 @@
       <c r="H291" s="7"/>
       <c r="I291" s="7"/>
       <c r="J291" s="7"/>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K291" s="7"/>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="8"/>
       <c r="B292" s="8"/>
       <c r="C292" s="8"/>
@@ -3900,8 +4187,9 @@
       <c r="H292" s="7"/>
       <c r="I292" s="7"/>
       <c r="J292" s="7"/>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K292" s="7"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="8"/>
       <c r="B293" s="8"/>
       <c r="C293" s="8"/>
@@ -3912,8 +4200,9 @@
       <c r="H293" s="7"/>
       <c r="I293" s="7"/>
       <c r="J293" s="7"/>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K293" s="7"/>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="8"/>
       <c r="B294" s="8"/>
       <c r="C294" s="8"/>
@@ -3924,8 +4213,9 @@
       <c r="H294" s="7"/>
       <c r="I294" s="7"/>
       <c r="J294" s="7"/>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K294" s="7"/>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="8"/>
       <c r="B295" s="8"/>
       <c r="C295" s="8"/>
@@ -3936,8 +4226,9 @@
       <c r="H295" s="7"/>
       <c r="I295" s="7"/>
       <c r="J295" s="7"/>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K295" s="7"/>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="8"/>
       <c r="B296" s="8"/>
       <c r="C296" s="8"/>
@@ -3948,8 +4239,9 @@
       <c r="H296" s="7"/>
       <c r="I296" s="7"/>
       <c r="J296" s="7"/>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K296" s="7"/>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="8"/>
       <c r="B297" s="8"/>
       <c r="C297" s="8"/>
@@ -3960,8 +4252,9 @@
       <c r="H297" s="7"/>
       <c r="I297" s="7"/>
       <c r="J297" s="7"/>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K297" s="7"/>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="8"/>
       <c r="B298" s="8"/>
       <c r="C298" s="8"/>
@@ -3972,8 +4265,9 @@
       <c r="H298" s="7"/>
       <c r="I298" s="7"/>
       <c r="J298" s="7"/>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K298" s="7"/>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="8"/>
       <c r="B299" s="8"/>
       <c r="C299" s="8"/>
@@ -3984,8 +4278,9 @@
       <c r="H299" s="7"/>
       <c r="I299" s="7"/>
       <c r="J299" s="7"/>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K299" s="7"/>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="8"/>
       <c r="B300" s="8"/>
       <c r="C300" s="8"/>
@@ -3996,8 +4291,9 @@
       <c r="H300" s="7"/>
       <c r="I300" s="7"/>
       <c r="J300" s="7"/>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K300" s="7"/>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="8"/>
       <c r="B301" s="8"/>
       <c r="C301" s="8"/>
@@ -4008,6 +4304,7 @@
       <c r="H301" s="7"/>
       <c r="I301" s="7"/>
       <c r="J301" s="7"/>
+      <c r="K301" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/library/export_employee.xlsx
+++ b/library/export_employee.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\FAS\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas2020\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7992" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7995" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -444,23 +444,23 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
@@ -468,13 +468,13 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
@@ -482,26 +482,26 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="8" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="C9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -536,7 +536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -549,7 +549,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -562,7 +562,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -575,7 +575,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -588,7 +588,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -601,7 +601,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -614,7 +614,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -627,7 +627,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -640,7 +640,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -653,7 +653,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -666,7 +666,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -679,7 +679,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -692,7 +692,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -705,7 +705,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -718,7 +718,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -731,7 +731,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -744,7 +744,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -757,7 +757,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -770,7 +770,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -783,7 +783,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -796,7 +796,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -809,7 +809,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -822,7 +822,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -835,7 +835,7 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -848,7 +848,7 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -861,7 +861,7 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -874,7 +874,7 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -887,7 +887,7 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -900,7 +900,7 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -913,7 +913,7 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -926,7 +926,7 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -939,7 +939,7 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -952,7 +952,7 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -965,7 +965,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -978,7 +978,7 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -991,7 +991,7 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -1004,7 +1004,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -1017,7 +1017,7 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -1030,7 +1030,7 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -1043,7 +1043,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -1056,7 +1056,7 @@
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -1069,7 +1069,7 @@
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -1082,7 +1082,7 @@
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -1095,7 +1095,7 @@
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -1108,7 +1108,7 @@
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -1121,7 +1121,7 @@
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -1134,7 +1134,7 @@
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -1147,7 +1147,7 @@
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -1160,7 +1160,7 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -1173,7 +1173,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -1186,7 +1186,7 @@
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -1199,7 +1199,7 @@
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -1212,7 +1212,7 @@
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -1225,7 +1225,7 @@
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -1238,7 +1238,7 @@
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -1251,7 +1251,7 @@
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -1264,7 +1264,7 @@
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -1277,7 +1277,7 @@
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -1290,7 +1290,7 @@
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -1303,7 +1303,7 @@
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -1316,7 +1316,7 @@
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -1329,7 +1329,7 @@
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -1342,7 +1342,7 @@
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -1355,7 +1355,7 @@
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -1368,7 +1368,7 @@
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -1381,7 +1381,7 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -1394,7 +1394,7 @@
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -1407,7 +1407,7 @@
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -1420,7 +1420,7 @@
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -1433,7 +1433,7 @@
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -1446,7 +1446,7 @@
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -1459,7 +1459,7 @@
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -1472,7 +1472,7 @@
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -1485,7 +1485,7 @@
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -1498,7 +1498,7 @@
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -1511,7 +1511,7 @@
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -1524,7 +1524,7 @@
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -1537,7 +1537,7 @@
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -1550,7 +1550,7 @@
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -1563,7 +1563,7 @@
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -1576,7 +1576,7 @@
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -1589,7 +1589,7 @@
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -1602,7 +1602,7 @@
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -1615,7 +1615,7 @@
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -1628,7 +1628,7 @@
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -1641,7 +1641,7 @@
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -1654,7 +1654,7 @@
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -1667,7 +1667,7 @@
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -1680,7 +1680,7 @@
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -1693,7 +1693,7 @@
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -1706,7 +1706,7 @@
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -1719,7 +1719,7 @@
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -1732,7 +1732,7 @@
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -1745,7 +1745,7 @@
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -1758,7 +1758,7 @@
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -1771,7 +1771,7 @@
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -1784,7 +1784,7 @@
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -1797,7 +1797,7 @@
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -1810,7 +1810,7 @@
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -1823,7 +1823,7 @@
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -1836,7 +1836,7 @@
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -1849,7 +1849,7 @@
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -1862,7 +1862,7 @@
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -1875,7 +1875,7 @@
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -1888,7 +1888,7 @@
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -1901,7 +1901,7 @@
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -1914,7 +1914,7 @@
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -1927,7 +1927,7 @@
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -1940,7 +1940,7 @@
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -1953,7 +1953,7 @@
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -1966,7 +1966,7 @@
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -1979,7 +1979,7 @@
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -1992,7 +1992,7 @@
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -2005,7 +2005,7 @@
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -2018,7 +2018,7 @@
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -2031,7 +2031,7 @@
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -2044,7 +2044,7 @@
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -2057,7 +2057,7 @@
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -2070,7 +2070,7 @@
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -2083,7 +2083,7 @@
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -2096,7 +2096,7 @@
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -2109,7 +2109,7 @@
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -2122,7 +2122,7 @@
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -2135,7 +2135,7 @@
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -2148,7 +2148,7 @@
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -2161,7 +2161,7 @@
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -2174,7 +2174,7 @@
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -2187,7 +2187,7 @@
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -2200,7 +2200,7 @@
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -2213,7 +2213,7 @@
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -2226,7 +2226,7 @@
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -2239,7 +2239,7 @@
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -2252,7 +2252,7 @@
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -2265,7 +2265,7 @@
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -2278,7 +2278,7 @@
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -2291,7 +2291,7 @@
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -2304,7 +2304,7 @@
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -2317,7 +2317,7 @@
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -2330,7 +2330,7 @@
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -2343,7 +2343,7 @@
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -2356,7 +2356,7 @@
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -2369,7 +2369,7 @@
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -2382,7 +2382,7 @@
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -2395,7 +2395,7 @@
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -2408,7 +2408,7 @@
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -2421,7 +2421,7 @@
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -2434,7 +2434,7 @@
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -2447,7 +2447,7 @@
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -2460,7 +2460,7 @@
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -2473,7 +2473,7 @@
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -2486,7 +2486,7 @@
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -2499,7 +2499,7 @@
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -2512,7 +2512,7 @@
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -2525,7 +2525,7 @@
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -2538,7 +2538,7 @@
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -2551,7 +2551,7 @@
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -2564,7 +2564,7 @@
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -2577,7 +2577,7 @@
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -2590,7 +2590,7 @@
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -2603,7 +2603,7 @@
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -2616,7 +2616,7 @@
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -2629,7 +2629,7 @@
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -2642,7 +2642,7 @@
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -2655,7 +2655,7 @@
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -2668,7 +2668,7 @@
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -2681,7 +2681,7 @@
       <c r="J176" s="7"/>
       <c r="K176" s="7"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -2694,7 +2694,7 @@
       <c r="J177" s="7"/>
       <c r="K177" s="7"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -2707,7 +2707,7 @@
       <c r="J178" s="7"/>
       <c r="K178" s="7"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -2720,7 +2720,7 @@
       <c r="J179" s="7"/>
       <c r="K179" s="7"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -2733,7 +2733,7 @@
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -2746,7 +2746,7 @@
       <c r="J181" s="7"/>
       <c r="K181" s="7"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -2759,7 +2759,7 @@
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -2772,7 +2772,7 @@
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -2785,7 +2785,7 @@
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -2798,7 +2798,7 @@
       <c r="J185" s="7"/>
       <c r="K185" s="7"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -2811,7 +2811,7 @@
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -2824,7 +2824,7 @@
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -2837,7 +2837,7 @@
       <c r="J188" s="7"/>
       <c r="K188" s="7"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -2850,7 +2850,7 @@
       <c r="J189" s="7"/>
       <c r="K189" s="7"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -2863,7 +2863,7 @@
       <c r="J190" s="7"/>
       <c r="K190" s="7"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -2876,7 +2876,7 @@
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -2889,7 +2889,7 @@
       <c r="J192" s="7"/>
       <c r="K192" s="7"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -2902,7 +2902,7 @@
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -2915,7 +2915,7 @@
       <c r="J194" s="7"/>
       <c r="K194" s="7"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -2928,7 +2928,7 @@
       <c r="J195" s="7"/>
       <c r="K195" s="7"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -2941,7 +2941,7 @@
       <c r="J196" s="7"/>
       <c r="K196" s="7"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -2954,7 +2954,7 @@
       <c r="J197" s="7"/>
       <c r="K197" s="7"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -2967,7 +2967,7 @@
       <c r="J198" s="7"/>
       <c r="K198" s="7"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -2980,7 +2980,7 @@
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -2993,7 +2993,7 @@
       <c r="J200" s="7"/>
       <c r="K200" s="7"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -3006,7 +3006,7 @@
       <c r="J201" s="7"/>
       <c r="K201" s="7"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -3019,7 +3019,7 @@
       <c r="J202" s="7"/>
       <c r="K202" s="7"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -3032,7 +3032,7 @@
       <c r="J203" s="7"/>
       <c r="K203" s="7"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -3045,7 +3045,7 @@
       <c r="J204" s="7"/>
       <c r="K204" s="7"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -3058,7 +3058,7 @@
       <c r="J205" s="7"/>
       <c r="K205" s="7"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -3071,7 +3071,7 @@
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -3084,7 +3084,7 @@
       <c r="J207" s="7"/>
       <c r="K207" s="7"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -3097,7 +3097,7 @@
       <c r="J208" s="7"/>
       <c r="K208" s="7"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -3110,7 +3110,7 @@
       <c r="J209" s="7"/>
       <c r="K209" s="7"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -3123,7 +3123,7 @@
       <c r="J210" s="7"/>
       <c r="K210" s="7"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="8"/>
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
@@ -3136,7 +3136,7 @@
       <c r="J211" s="7"/>
       <c r="K211" s="7"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="8"/>
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
@@ -3149,7 +3149,7 @@
       <c r="J212" s="7"/>
       <c r="K212" s="7"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="8"/>
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
@@ -3162,7 +3162,7 @@
       <c r="J213" s="7"/>
       <c r="K213" s="7"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="8"/>
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
@@ -3175,7 +3175,7 @@
       <c r="J214" s="7"/>
       <c r="K214" s="7"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="8"/>
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
@@ -3188,7 +3188,7 @@
       <c r="J215" s="7"/>
       <c r="K215" s="7"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="8"/>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
@@ -3201,7 +3201,7 @@
       <c r="J216" s="7"/>
       <c r="K216" s="7"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="8"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
@@ -3214,7 +3214,7 @@
       <c r="J217" s="7"/>
       <c r="K217" s="7"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="8"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
@@ -3227,7 +3227,7 @@
       <c r="J218" s="7"/>
       <c r="K218" s="7"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="8"/>
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
@@ -3240,7 +3240,7 @@
       <c r="J219" s="7"/>
       <c r="K219" s="7"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="8"/>
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
@@ -3253,7 +3253,7 @@
       <c r="J220" s="7"/>
       <c r="K220" s="7"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="8"/>
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
@@ -3266,7 +3266,7 @@
       <c r="J221" s="7"/>
       <c r="K221" s="7"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="8"/>
       <c r="B222" s="8"/>
       <c r="C222" s="8"/>
@@ -3279,7 +3279,7 @@
       <c r="J222" s="7"/>
       <c r="K222" s="7"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="8"/>
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
@@ -3292,7 +3292,7 @@
       <c r="J223" s="7"/>
       <c r="K223" s="7"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="8"/>
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
@@ -3305,7 +3305,7 @@
       <c r="J224" s="7"/>
       <c r="K224" s="7"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="8"/>
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
@@ -3318,7 +3318,7 @@
       <c r="J225" s="7"/>
       <c r="K225" s="7"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="8"/>
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
@@ -3331,7 +3331,7 @@
       <c r="J226" s="7"/>
       <c r="K226" s="7"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="8"/>
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
@@ -3344,7 +3344,7 @@
       <c r="J227" s="7"/>
       <c r="K227" s="7"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="8"/>
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
@@ -3357,7 +3357,7 @@
       <c r="J228" s="7"/>
       <c r="K228" s="7"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="8"/>
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
@@ -3370,7 +3370,7 @@
       <c r="J229" s="7"/>
       <c r="K229" s="7"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="8"/>
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
@@ -3383,7 +3383,7 @@
       <c r="J230" s="7"/>
       <c r="K230" s="7"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="8"/>
       <c r="B231" s="8"/>
       <c r="C231" s="8"/>
@@ -3396,7 +3396,7 @@
       <c r="J231" s="7"/>
       <c r="K231" s="7"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="8"/>
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
@@ -3409,7 +3409,7 @@
       <c r="J232" s="7"/>
       <c r="K232" s="7"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="8"/>
       <c r="B233" s="8"/>
       <c r="C233" s="8"/>
@@ -3422,7 +3422,7 @@
       <c r="J233" s="7"/>
       <c r="K233" s="7"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="8"/>
       <c r="B234" s="8"/>
       <c r="C234" s="8"/>
@@ -3435,7 +3435,7 @@
       <c r="J234" s="7"/>
       <c r="K234" s="7"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="8"/>
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
@@ -3448,7 +3448,7 @@
       <c r="J235" s="7"/>
       <c r="K235" s="7"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="8"/>
       <c r="B236" s="8"/>
       <c r="C236" s="8"/>
@@ -3461,7 +3461,7 @@
       <c r="J236" s="7"/>
       <c r="K236" s="7"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="8"/>
       <c r="B237" s="8"/>
       <c r="C237" s="8"/>
@@ -3474,7 +3474,7 @@
       <c r="J237" s="7"/>
       <c r="K237" s="7"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="8"/>
       <c r="B238" s="8"/>
       <c r="C238" s="8"/>
@@ -3487,7 +3487,7 @@
       <c r="J238" s="7"/>
       <c r="K238" s="7"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="8"/>
       <c r="B239" s="8"/>
       <c r="C239" s="8"/>
@@ -3500,7 +3500,7 @@
       <c r="J239" s="7"/>
       <c r="K239" s="7"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="8"/>
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
@@ -3513,7 +3513,7 @@
       <c r="J240" s="7"/>
       <c r="K240" s="7"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="8"/>
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
@@ -3526,7 +3526,7 @@
       <c r="J241" s="7"/>
       <c r="K241" s="7"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="8"/>
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
@@ -3539,7 +3539,7 @@
       <c r="J242" s="7"/>
       <c r="K242" s="7"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="8"/>
       <c r="B243" s="8"/>
       <c r="C243" s="8"/>
@@ -3552,7 +3552,7 @@
       <c r="J243" s="7"/>
       <c r="K243" s="7"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="8"/>
       <c r="B244" s="8"/>
       <c r="C244" s="8"/>
@@ -3565,7 +3565,7 @@
       <c r="J244" s="7"/>
       <c r="K244" s="7"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="8"/>
       <c r="B245" s="8"/>
       <c r="C245" s="8"/>
@@ -3578,7 +3578,7 @@
       <c r="J245" s="7"/>
       <c r="K245" s="7"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="8"/>
       <c r="B246" s="8"/>
       <c r="C246" s="8"/>
@@ -3591,7 +3591,7 @@
       <c r="J246" s="7"/>
       <c r="K246" s="7"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="8"/>
       <c r="B247" s="8"/>
       <c r="C247" s="8"/>
@@ -3604,7 +3604,7 @@
       <c r="J247" s="7"/>
       <c r="K247" s="7"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="8"/>
       <c r="B248" s="8"/>
       <c r="C248" s="8"/>
@@ -3617,7 +3617,7 @@
       <c r="J248" s="7"/>
       <c r="K248" s="7"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="8"/>
       <c r="B249" s="8"/>
       <c r="C249" s="8"/>
@@ -3630,7 +3630,7 @@
       <c r="J249" s="7"/>
       <c r="K249" s="7"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="8"/>
       <c r="B250" s="8"/>
       <c r="C250" s="8"/>
@@ -3643,7 +3643,7 @@
       <c r="J250" s="7"/>
       <c r="K250" s="7"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="8"/>
       <c r="B251" s="8"/>
       <c r="C251" s="8"/>
@@ -3656,7 +3656,7 @@
       <c r="J251" s="7"/>
       <c r="K251" s="7"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="8"/>
       <c r="B252" s="8"/>
       <c r="C252" s="8"/>
@@ -3669,7 +3669,7 @@
       <c r="J252" s="7"/>
       <c r="K252" s="7"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="8"/>
       <c r="B253" s="8"/>
       <c r="C253" s="8"/>
@@ -3682,7 +3682,7 @@
       <c r="J253" s="7"/>
       <c r="K253" s="7"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="8"/>
       <c r="B254" s="8"/>
       <c r="C254" s="8"/>
@@ -3695,7 +3695,7 @@
       <c r="J254" s="7"/>
       <c r="K254" s="7"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="8"/>
       <c r="B255" s="8"/>
       <c r="C255" s="8"/>
@@ -3708,7 +3708,7 @@
       <c r="J255" s="7"/>
       <c r="K255" s="7"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="8"/>
       <c r="B256" s="8"/>
       <c r="C256" s="8"/>
@@ -3721,7 +3721,7 @@
       <c r="J256" s="7"/>
       <c r="K256" s="7"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="8"/>
       <c r="B257" s="8"/>
       <c r="C257" s="8"/>
@@ -3734,7 +3734,7 @@
       <c r="J257" s="7"/>
       <c r="K257" s="7"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="8"/>
       <c r="B258" s="8"/>
       <c r="C258" s="8"/>
@@ -3747,7 +3747,7 @@
       <c r="J258" s="7"/>
       <c r="K258" s="7"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="8"/>
       <c r="B259" s="8"/>
       <c r="C259" s="8"/>
@@ -3760,7 +3760,7 @@
       <c r="J259" s="7"/>
       <c r="K259" s="7"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="8"/>
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
@@ -3773,7 +3773,7 @@
       <c r="J260" s="7"/>
       <c r="K260" s="7"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="8"/>
       <c r="B261" s="8"/>
       <c r="C261" s="8"/>
@@ -3786,7 +3786,7 @@
       <c r="J261" s="7"/>
       <c r="K261" s="7"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="8"/>
       <c r="B262" s="8"/>
       <c r="C262" s="8"/>
@@ -3799,7 +3799,7 @@
       <c r="J262" s="7"/>
       <c r="K262" s="7"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="8"/>
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
@@ -3812,7 +3812,7 @@
       <c r="J263" s="7"/>
       <c r="K263" s="7"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="8"/>
       <c r="B264" s="8"/>
       <c r="C264" s="8"/>
@@ -3825,7 +3825,7 @@
       <c r="J264" s="7"/>
       <c r="K264" s="7"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="8"/>
       <c r="B265" s="8"/>
       <c r="C265" s="8"/>
@@ -3838,7 +3838,7 @@
       <c r="J265" s="7"/>
       <c r="K265" s="7"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="8"/>
       <c r="B266" s="8"/>
       <c r="C266" s="8"/>
@@ -3851,7 +3851,7 @@
       <c r="J266" s="7"/>
       <c r="K266" s="7"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="8"/>
       <c r="B267" s="8"/>
       <c r="C267" s="8"/>
@@ -3864,7 +3864,7 @@
       <c r="J267" s="7"/>
       <c r="K267" s="7"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="8"/>
       <c r="B268" s="8"/>
       <c r="C268" s="8"/>
@@ -3877,7 +3877,7 @@
       <c r="J268" s="7"/>
       <c r="K268" s="7"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="8"/>
       <c r="B269" s="8"/>
       <c r="C269" s="8"/>
@@ -3890,7 +3890,7 @@
       <c r="J269" s="7"/>
       <c r="K269" s="7"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="8"/>
       <c r="B270" s="8"/>
       <c r="C270" s="8"/>
@@ -3903,7 +3903,7 @@
       <c r="J270" s="7"/>
       <c r="K270" s="7"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="8"/>
       <c r="B271" s="8"/>
       <c r="C271" s="8"/>
@@ -3916,7 +3916,7 @@
       <c r="J271" s="7"/>
       <c r="K271" s="7"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="8"/>
       <c r="B272" s="8"/>
       <c r="C272" s="8"/>
@@ -3929,7 +3929,7 @@
       <c r="J272" s="7"/>
       <c r="K272" s="7"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="8"/>
       <c r="B273" s="8"/>
       <c r="C273" s="8"/>
@@ -3942,7 +3942,7 @@
       <c r="J273" s="7"/>
       <c r="K273" s="7"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="8"/>
       <c r="B274" s="8"/>
       <c r="C274" s="8"/>
@@ -3955,7 +3955,7 @@
       <c r="J274" s="7"/>
       <c r="K274" s="7"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="8"/>
       <c r="B275" s="8"/>
       <c r="C275" s="8"/>
@@ -3968,7 +3968,7 @@
       <c r="J275" s="7"/>
       <c r="K275" s="7"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="8"/>
       <c r="B276" s="8"/>
       <c r="C276" s="8"/>
@@ -3981,7 +3981,7 @@
       <c r="J276" s="7"/>
       <c r="K276" s="7"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="8"/>
       <c r="B277" s="8"/>
       <c r="C277" s="8"/>
@@ -3994,7 +3994,7 @@
       <c r="J277" s="7"/>
       <c r="K277" s="7"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="8"/>
       <c r="B278" s="8"/>
       <c r="C278" s="8"/>
@@ -4007,7 +4007,7 @@
       <c r="J278" s="7"/>
       <c r="K278" s="7"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="8"/>
       <c r="B279" s="8"/>
       <c r="C279" s="8"/>
@@ -4020,7 +4020,7 @@
       <c r="J279" s="7"/>
       <c r="K279" s="7"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="8"/>
       <c r="B280" s="8"/>
       <c r="C280" s="8"/>
@@ -4033,7 +4033,7 @@
       <c r="J280" s="7"/>
       <c r="K280" s="7"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="8"/>
       <c r="B281" s="8"/>
       <c r="C281" s="8"/>
@@ -4046,7 +4046,7 @@
       <c r="J281" s="7"/>
       <c r="K281" s="7"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="8"/>
       <c r="B282" s="8"/>
       <c r="C282" s="8"/>
@@ -4059,7 +4059,7 @@
       <c r="J282" s="7"/>
       <c r="K282" s="7"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="8"/>
       <c r="B283" s="8"/>
       <c r="C283" s="8"/>
@@ -4072,7 +4072,7 @@
       <c r="J283" s="7"/>
       <c r="K283" s="7"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="8"/>
       <c r="B284" s="8"/>
       <c r="C284" s="8"/>
@@ -4085,7 +4085,7 @@
       <c r="J284" s="7"/>
       <c r="K284" s="7"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="8"/>
       <c r="B285" s="8"/>
       <c r="C285" s="8"/>
@@ -4098,7 +4098,7 @@
       <c r="J285" s="7"/>
       <c r="K285" s="7"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="8"/>
       <c r="B286" s="8"/>
       <c r="C286" s="8"/>
@@ -4111,7 +4111,7 @@
       <c r="J286" s="7"/>
       <c r="K286" s="7"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="8"/>
       <c r="B287" s="8"/>
       <c r="C287" s="8"/>
@@ -4124,7 +4124,7 @@
       <c r="J287" s="7"/>
       <c r="K287" s="7"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="8"/>
       <c r="B288" s="8"/>
       <c r="C288" s="8"/>
@@ -4137,7 +4137,7 @@
       <c r="J288" s="7"/>
       <c r="K288" s="7"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="8"/>
       <c r="B289" s="8"/>
       <c r="C289" s="8"/>
@@ -4150,7 +4150,7 @@
       <c r="J289" s="7"/>
       <c r="K289" s="7"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="8"/>
       <c r="B290" s="8"/>
       <c r="C290" s="8"/>
@@ -4163,7 +4163,7 @@
       <c r="J290" s="7"/>
       <c r="K290" s="7"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="8"/>
       <c r="B291" s="8"/>
       <c r="C291" s="8"/>
@@ -4176,7 +4176,7 @@
       <c r="J291" s="7"/>
       <c r="K291" s="7"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="8"/>
       <c r="B292" s="8"/>
       <c r="C292" s="8"/>
@@ -4189,7 +4189,7 @@
       <c r="J292" s="7"/>
       <c r="K292" s="7"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="8"/>
       <c r="B293" s="8"/>
       <c r="C293" s="8"/>
@@ -4202,7 +4202,7 @@
       <c r="J293" s="7"/>
       <c r="K293" s="7"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="8"/>
       <c r="B294" s="8"/>
       <c r="C294" s="8"/>
@@ -4215,7 +4215,7 @@
       <c r="J294" s="7"/>
       <c r="K294" s="7"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="8"/>
       <c r="B295" s="8"/>
       <c r="C295" s="8"/>
@@ -4228,7 +4228,7 @@
       <c r="J295" s="7"/>
       <c r="K295" s="7"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="8"/>
       <c r="B296" s="8"/>
       <c r="C296" s="8"/>
@@ -4241,7 +4241,7 @@
       <c r="J296" s="7"/>
       <c r="K296" s="7"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="8"/>
       <c r="B297" s="8"/>
       <c r="C297" s="8"/>
@@ -4254,7 +4254,7 @@
       <c r="J297" s="7"/>
       <c r="K297" s="7"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="8"/>
       <c r="B298" s="8"/>
       <c r="C298" s="8"/>
@@ -4267,7 +4267,7 @@
       <c r="J298" s="7"/>
       <c r="K298" s="7"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="8"/>
       <c r="B299" s="8"/>
       <c r="C299" s="8"/>
@@ -4280,7 +4280,7 @@
       <c r="J299" s="7"/>
       <c r="K299" s="7"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="8"/>
       <c r="B300" s="8"/>
       <c r="C300" s="8"/>
@@ -4293,7 +4293,7 @@
       <c r="J300" s="7"/>
       <c r="K300" s="7"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="8"/>
       <c r="B301" s="8"/>
       <c r="C301" s="8"/>
